--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Macarrao.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Macarrao.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin 85g Galinha Caipira</t>
+          <t>Macarrão Instantâneo Nissin 85g Carne</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb706ec1-6b17-41ef-8967-3a6727c0f00f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ee6ccef-1940-49f6-aa0e-3248cacc4493.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891079000205</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Macarrão Com Ovos Espaguete 8 Adria 500g</t>
+          <t>Macarrão Instantâneo Nissin 85g Galinha Caipira</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9c9027c-d557-4c19-ab21-60e9e64605cf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb706ec1-6b17-41ef-8967-3a6727c0f00f.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896022201913</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Macarrão Dona Benta Massa Com Ovos Parafuso 500g</t>
+          <t>Macarrão Renata Ninho 3 C/ Ovos 500 Gr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/375cb886-dc68-4336-8936-70682c26eff6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51ff8901-6a03-46bf-a9d0-c0de06ab9339.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896022200251</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Macarrão Com Ovos Parafuso Adria 500g</t>
+          <t>Macarrão Instantâneo Nissin Yakissoba 500g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87693225-117d-448f-b9bc-0ec2cc0af9b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a828682b-512b-436f-8555-db6d630108c3.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896216100886</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin 85g Carne</t>
+          <t>Macarrão Integrale Renata Penne 500g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ee6ccef-1940-49f6-aa0e-3248cacc4493.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7cccaa7-bca4-4e10-b472-8c3ce1cbb6b7.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896022203634</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Macarrão Dona Benta Massa Com Ovos Espaguete 500g</t>
+          <t>Macarrão Renata Gravata C/ Ovos 500gr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa939ecd-4c48-4f96-b067-4df3b4a2da6a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8728aa84-cc28-4f6c-b820-2922cfb0ba8e.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896022200138</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Macarrão C/ovos Dona Benta 500gr Pena</t>
+          <t>Macarrão Adria 500g Letrinhas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c34b541-83c3-4906-a51c-fdda39e131eb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18a5e00c-25a2-440b-ab99-f2920af20174.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896205788224</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Queijo Parmesão Ralado Vigor 50g</t>
+          <t>Macarrão Adria 500g Nhoque</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f525d076-a6bd-412d-9883-65e87ff498bd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c31e5080-8b88-4ebf-b9b1-b4af82cbf15d.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896205754465</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Turma Da Mônica Nissin 80g Tomate</t>
+          <t>Macarrão Adria 500g Gravata</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a295f020-90f7-458b-b052-0b104f141123.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/355b6b0a-6ba8-485b-91b8-1d3f95c6c6bc.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896205754458</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Macarrão Com Ovos Pena Adria 500g</t>
+          <t>Macarrão Dona Benta C/ovos 500g Espaguete 9</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2260ade-ad6c-4403-8bcd-4ad38c93f78c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9ecca79-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896005275382</t>
         </is>
       </c>
     </row>
@@ -731,7 +786,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Macarrão Dona Benta C/ovos 500g Espaguete 9</t>
+          <t>Macarrão Dona Benta C/ovos 500gr Ave Maria</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -741,7 +796,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9ecca79-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b68fad38-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896005277317</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Queijo Parmesão Ralado Teixeira 40g</t>
+          <t>Macarrão Renata Pena Tricolori 500g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/532e4949-39f9-452e-8a24-69be38b5fb02.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4391c22-3991-4608-91b5-7791ffcef45e.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896022203702</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Macarrão C/ovos Barilla 500g Espaguete 8</t>
+          <t>Macarrão Instantâneo Turma Da Mônica Nissin 85g Galinha</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6f89378-231a-4b7f-bc21-5a291908e7d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e861e454-98d7-48fd-a7cb-57fae325ac3f.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891079001011</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin 85g Galinha</t>
+          <t>Macarrão Nissin 500g Espaguete 3 Minutos</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d57febcb-4812-4ebe-8531-01d59bd0f47e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9a1fcd2-5b01-4722-a3d8-896b51943ac9.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891079006009</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Queijo Parmetto Ralado Matilat 40g</t>
+          <t>Macarrão Integrale Renata 500g Farfalle</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4a7dee4c-0b26-4426-84f8-5e39a36a8c46.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df01943a-6db8-4e5f-bfc9-830e66aecd96.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896022203627</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Espaguetinho N9</t>
+          <t>Macarrão Renata Parafuso Tricolori 500g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adc51c76-f617-4f4b-b298-dbc22f39cd30.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26e363af-27b0-4e70-ad37-0add3a3d6007.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896022203719</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Macarrão Dona Benta Massa Com Ovos Linguine 500g</t>
+          <t>Macarrão Semola Linguine Renata 500g</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb7768de-e1a5-4baf-a912-d2181e37481f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe0e1b05-ef0b-4576-8837-70189b6ff4c6.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896022200145</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Queijo Parmesão Ralado Vigor Pacote 100g</t>
+          <t>Queijo Ralado Faixa Azul Vigor 50gr</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afb83f86-913a-4a64-850d-64332e7fb20e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8fa38b19-728c-42a5-9973-11ce15e2c0a1.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891999960054</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Turma Da Mônica Nissin 85g Galinha</t>
+          <t>Queijo Ralado Reliquia Da Canastra 50g</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e861e454-98d7-48fd-a7cb-57fae325ac3f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2581da78-c548-414c-8417-e977a28c732e.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7898924049488</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Queijo Ralado La Serenissima 50g</t>
+          <t>Macarrão Instantâneo Nissin 85 Bacon</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32cd8b4c-7f14-4d26-8d32-3d038178c711.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6699785a-5a94-4a14-ad57-6094f8de5afc.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891079000250</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin 85g Legumes</t>
+          <t>Macarrão Renata Fusilli Superiori 500g</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43fa83a7-1c6e-4178-9087-74c3caef1892.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f40e3cde-e956-4a59-a4c7-9c2c21efeac1.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896022200022</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Macarrão C/ovos Barilla 500g Penne Rigate</t>
+          <t>Macarrão Renata Superiore Penne 500g</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e059cfac-031c-4e93-b165-b89061df4a64.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9465ed5c-0596-4371-ac74-5d5dad367c56.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896022200039</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Macarrão C/ovos Barilla 500g Parafuso</t>
+          <t>Macarrão Renata Spaguetti-8 Superiori</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f64567b3-1b13-4c11-9eac-cc79808236be.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9bffd33-052d-489f-a3f8-c0eff84ebb25.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896022200046</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Turma Da Mônica Nissin 80g Carne</t>
+          <t>Macarrao Renata Fusilli Grano Duro 500g Tricolor</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc71b145-7ca3-40e7-b8f4-eb499ca46b7e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d67f9db2-e7ff-4aa6-8bd0-84090af63db8.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896022200145</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Gravata</t>
+          <t>Macarrao Penne Grano Duro Renata 500g Tricolori</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/355b6b0a-6ba8-485b-91b8-1d3f95c6c6bc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7196e8f2-554d-4373-b43e-2de4c8664794.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896022203702</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Macarrão C/ovos Renata 500gr Parafuso</t>
+          <t>Lasanha C/ovos Renata Tradicional 500g</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de7a7ede-0d2f-4b1c-8f05-0ca0e068345d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd77dce4-fc29-4b9b-ba83-b301dc2dbcad.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896022200121</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Queijo Ralado Presidente 100g</t>
+          <t>Macarrão Renata 500g Concha</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f628d9b-ecfa-47ba-bfaa-a2ccc608c5cd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f51000a4-953f-43a8-aa6c-952c4cb9bea1.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896022200145</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Macarrão Dona Benta C/ovos 500gr Ave Maria</t>
+          <t>Macarrão Renata 500g Padre Nosso</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b68fad38-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98ec972b-9cb8-41b0-8c96-f8677fac8114.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896022200152</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin 85g Carne Com Tomate</t>
+          <t>Macarrão Renata 500g Nhoque</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c55aca93-1509-4d9a-9b8e-a9e24e6993d8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7543120-11c0-4e05-b739-48654530266f.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896022200176</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1394,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Macarrão C/ovos Renata 500gr Espag 8</t>
+          <t>Macarrão C/ovos Renata 500gr Parafuso</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1254,7 +1404,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a92e965-00ee-4b96-aab1-723e7f5617fc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de7a7ede-0d2f-4b1c-8f05-0ca0e068345d.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896022200213</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Macarrão C/ Ovos Barilla 500g Linguine</t>
+          <t>Macarrão C/ovos Renata 500gr Pena</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/308409c3-07c3-47f8-9f6f-5b4978d114a6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c0a09d5-ebfe-4a8c-970f-29de72a5a7b3.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896022200213</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Macarrão C/ovos Barilla 500g Espaguete 9</t>
+          <t>Macarrão Renata 500g Carocolino</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbde8dcf-87a0-4c19-ac40-cfcbd93a13c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ac4b7ea-3ab3-4674-aa1f-410d58ac2f6c.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896022200220</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Macarrão Inst.renata 80g Carne</t>
+          <t>Macarrão Renata Ninho N2 500gr</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78eae155-fd7a-46f7-aee2-14c969c03911.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c418a3c5-dd8d-4a48-ad2a-21b6de8e4858.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896022200244</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Macarrão Inst.renata 80g Galinha Caipira</t>
+          <t>Macarrão Renata Fidelinho 10 C/ovos 500</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/017fea2f-90bc-4e38-b3fb-9741c249ed7b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fad41293-b54f-419e-9622-93b1bafc9313.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896022200268</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Queijo Parmesão Ralado Faixa Azul 100gr</t>
+          <t>Macarrão C/ovos Renata 500gr Espag 9</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6516680-c595-4f0e-bf0e-9708b69820a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4c625ae-dc4f-458d-9b7e-d7bf567d4af3.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896022200275</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Furado Nº5</t>
+          <t>Macarrão C/ovos Renata 500gr Espag 8</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a47a6a82-e05e-48d0-acd5-073f85f0cb59.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a92e965-00ee-4b96-aab1-723e7f5617fc.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896022200282</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin 85g Picanha</t>
+          <t>Macarrão Renata Furadinho 5 C/ovos 500g</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5fe833eb-c7b1-427c-8799-a36b4a511a45.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a1c4dc2-f77b-4d51-9a08-d22f6afcaa18.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896022200268</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Macarrão C/ovos Renata 500gr Pena</t>
+          <t>Macarrão Renata Aletria 500gr</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c0a09d5-ebfe-4a8c-970f-29de72a5a7b3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/408a2b67-f100-4fd6-8d7d-2e36d72e3daf.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896022200305</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Queijo Ralado Grosso Teixeira 50gr</t>
+          <t>Macarrão Renata Farfalle Superiori 500g</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bca33e5-8955-4dfd-b247-e36a1236e5ec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fabbd5a9-abb2-4e80-a8f6-88e5a3ef1293.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896022201326</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Fidelinho N10</t>
+          <t>Macarrão Integral Renata 500g Espaguet</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2f26c06-8e59-49b8-8abd-53c915f6275b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4c2bccf-eeb2-4b46-b0cb-26a51a678280.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896022201340</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Macarrão Inst.renata 80g Galinha</t>
+          <t>Macarrão Integral Renata 500g Fusilli</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6b80542-a075-4b67-89dd-374f49f040ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf0bf265-9f2b-4006-9b31-b6a3c7817aee.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896022201746</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Ave Maria</t>
+          <t>Macarrão Inst.renata 80g Galinha Suave</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86eba80c-a406-4832-9211-8e3dcbca2efd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c26b8d2c-91a8-49f4-ae41-5b383a890619.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896022201852</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin 85 Bacon</t>
+          <t>Macarrão Inst.renata 80g Carne Suave</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6699785a-5a94-4a14-ad57-6094f8de5afc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a8ea449-e838-4881-9ed3-66237e5fa86e.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896022201869</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1842,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Macarrão Inst.renata 80g Legumes</t>
+          <t>Macarrão Inst.renata 80g Galinha</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1632,7 +1852,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6acd30f6-2d1f-429e-a531-59c9c1d62ff8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6b80542-a075-4b67-89dd-374f49f040ff.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896022201913</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Espiral</t>
+          <t>Macarrão Inst.renata 80g Carne</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2e478d1-ceb7-4551-8643-d11cfdad7c59.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78eae155-fd7a-46f7-aee2-14c969c03911.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896022201869</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Macarrão Talharim Nissin 90g Bolonhesa</t>
+          <t>Macarrão Inst.renata 80g Galinha Caipira</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff71dfda-ea65-4436-97a0-b48ede3d82e9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/017fea2f-90bc-4e38-b3fb-9741c249ed7b.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896022201913</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Argola</t>
+          <t>Macarrão Inst.renata 80g Legumes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd257e4e-1364-40a3-99f4-9013ec1ef67b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6acd30f6-2d1f-429e-a531-59c9c1d62ff8.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896022201869</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 69g Galinha Caipira</t>
+          <t>Queijo Parmesão Ralado Faixa Azul 100gr</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecb9cb70-2eb9-4d20-867d-d97b83249666.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6516680-c595-4f0e-bf0e-9708b69820a4.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7891999960108</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Cabelo De Anjo</t>
+          <t>Queijo Parmesão Ralado Teixeira 40g</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,69</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50a04fa2-0f72-423d-83e2-6e707c6cfeda.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/532e4949-39f9-452e-8a24-69be38b5fb02.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896066805047</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Macarrão C/ovos Barilla 500g Fettuccine</t>
+          <t>Macarrão C/ovos Dona Benta 500gr Pena</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2bc1dd56-6673-41b0-a9d2-6f1c89adc975.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c34b541-83c3-4906-a51c-fdda39e131eb.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7896022200213</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Nhoque</t>
+          <t>Macarrão Dona Benta Massa Com Ovos Espaguete 500g</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c31e5080-8b88-4ebf-b9b1-b4af82cbf15d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa939ecd-4c48-4f96-b067-4df3b4a2da6a.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896005275382</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Macarrão De Arroz Urbano S/ Gluten 500g Espag</t>
+          <t>Macarrão Adria 500g Espaguetinho N9</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/854553d8-91f9-461a-8a16-53dcb5dc070d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adc51c76-f617-4f4b-b298-dbc22f39cd30.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896205788224</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Queijo Ralado Faixa Azul Vigor 50gr</t>
+          <t>Macarrão Com Ovos Espaguete 8 Adria 500g</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8fa38b19-728c-42a5-9973-11ce15e2c0a1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9c9027c-d557-4c19-ab21-60e9e64605cf.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7898951850064</t>
         </is>
       </c>
     </row>
@@ -1892,7 +2162,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Letrinhas</t>
+          <t>Macarrão Adria 500g Furado Nº5</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1902,7 +2172,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18a5e00c-25a2-440b-ab99-f2920af20174.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a47a6a82-e05e-48d0-acd5-073f85f0cb59.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896205788224</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Macarrão C/ovos Renata 500gr Espag 9</t>
+          <t>Macarrão Adria 500g Fidelinho N10</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4c625ae-dc4f-458d-9b7e-d7bf567d4af3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2f26c06-8e59-49b8-8abd-53c915f6275b.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896205788224</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 69g Carne Defumada</t>
+          <t>Macarrão Ninho Adria 3 500g</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3ce2702-f1b0-4830-a632-fefef6e98791.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc1692b7-3f58-47f1-9e85-52092b06748b.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7896205754465</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Macarrão De Arroz Urbano S/gluten 500g Parafuso</t>
+          <t>Macarrão Adria 500g Espiral</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e532323-1aad-4c19-85f8-657daaa10be6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2e478d1-ceb7-4551-8643-d11cfdad7c59.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7896205788224</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Macarrão Renata Parafuso Tricolori 500g</t>
+          <t>Macarrão Com Ovos Parafuso Adria 500g</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26e363af-27b0-4e70-ad37-0add3a3d6007.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87693225-117d-448f-b9bc-0ec2cc0af9b2.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7896205788224</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Chico Bento 85g Caldinho De Feijão</t>
+          <t>Macarrão Adria 500g Padre Nosso</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2bc08c4-cc38-4b56-8c68-cad95d7cb0bd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd5b0748-2635-4168-9a62-9462e122473c.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7896022200152</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Macarrão Inst.renata 80g Carne Suave</t>
+          <t>Macarrão Com Ovos Pena Adria 500g</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a8ea449-e838-4881-9ed3-66237e5fa86e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2260ade-ad6c-4403-8bcd-4ad38c93f78c.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896205788224</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Adria 75g Assado De Carne</t>
+          <t>Macarrão Adria 500g Argola</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 2,29</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7dd0ae33-2165-477c-88d0-f302ca215d6e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd257e4e-1364-40a3-99f4-9013ec1ef67b.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896205788224</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lasanha Adria 500g</t>
+          <t>Macarrão Adria 500g Conchinha</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be97c693-f258-44ec-b8d0-c2ec506aba1a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d38ae93c-d9f0-4500-803d-43d118136d79.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7896205788248</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Queijo Ralado Matilat 40g</t>
+          <t>Macarrão Adria 500g Ave Maria</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b07d382e-09f8-4fde-9e35-3bd37462aa57.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86eba80c-a406-4832-9211-8e3dcbca2efd.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7896205754458</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Chico Bento 85g Canja De Galinha</t>
+          <t>Macarrão Adria 500g Cabelo De Anjo</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4aaf1f8e-cb70-4d21-8204-9b1a0613c470.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50a04fa2-0f72-423d-83e2-6e707c6cfeda.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7896205788286</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Conchinha</t>
+          <t>Lasanha Adria 500g</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d38ae93c-d9f0-4500-803d-43d118136d79.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be97c693-f258-44ec-b8d0-c2ec506aba1a.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7896205788408</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Macarrão De Arroz Urbano S/gluten 500g Pena</t>
+          <t>Macarrão D. Benta 500g Ninho</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4c4d131-683e-440d-8399-4555041a3e96.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b94e416b-1286-4c6d-9164-6d321340b7fa.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7896022200244</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin Lámen 85g Costela</t>
+          <t>Queijo Ralado Grosso Teixeira 50gr</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/46c0eddd-53d2-49eb-aaba-72cde19b62b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bca33e5-8955-4dfd-b247-e36a1236e5ec.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896066805047</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Macarrão Ninho Adria 3 500g</t>
+          <t>Massa P/ Lasanha Petybon 200gr</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc1692b7-3f58-47f1-9e85-52092b06748b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e1b3a960-2bec-4c09-9ae7-058028b36bb3.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7897721410309</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Macarrão Semola Linguine Renata 500g</t>
+          <t>Macarrão Renata Trad.superiore Spaghettini 10</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe0e1b05-ef0b-4576-8837-70189b6ff4c6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/383f05a2-db53-40b8-8476-60e6988d0565.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896022200046</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Macarrão Inst.renata 80g Galinha Suave</t>
+          <t>Queijo Ralado Reliquia Canastra 100g</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c26b8d2c-91a8-49f4-ae41-5b383a890619.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6435c1f6-cff2-4e12-9160-4331f0c6ba82.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7898924049068</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Macarrão Talharim Nissin 90g Carne Com Tomate</t>
+          <t>Queijo Ralado Vale Da Canastra 100g</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb06bd47-8171-490e-9fec-0f82e7352742.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e205153-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7898924049099</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 69g Costela Molh Chur</t>
+          <t>Macarrão C/ovos Barilla 500g Espaguete 8</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd0a52f5-25c9-4b0e-9de2-813d34ba8f3b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6f89378-231a-4b7f-bc21-5a291908e7d6.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7898951850064</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Macarrão D. Benta 500g Ninho</t>
+          <t>Macarrão C/ovos Barilla 500g Espaguete 9</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b94e416b-1286-4c6d-9164-6d321340b7fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbde8dcf-87a0-4c19-ac40-cfcbd93a13c1.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7898951850071</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Macarrão Renata 500g Talharim 2</t>
+          <t>Macarrão C/ovos Barilla 500g Penne Rigate</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45b737c7-6d5d-4d2c-8b86-9c052e325c18.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e059cfac-031c-4e93-b165-b89061df4a64.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7898951850095</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Adria 75g Assado De Galinha</t>
+          <t>Macarrão Yakissoba Mezzani 500g</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 2,29</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7194e809-3103-4900-bfd1-118b7515ab2e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/642824b6-69d9-4b2c-9050-d9a3aaefb4e3.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7896216100886</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Queijo Ralado Reliquia Da Canastra 50g</t>
+          <t>Cup Noodles Nissin 69g Galinha Caipira</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2581da78-c548-414c-8417-e977a28c732e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecb9cb70-2eb9-4d20-867d-d97b83249666.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7891079013113</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Macarrão Adria 500g Padre Nosso</t>
+          <t>Cup Noodles Nissin 69g Carne Defumada</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd5b0748-2635-4168-9a62-9462e122473c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3ce2702-f1b0-4830-a632-fefef6e98791.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7891079013113</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lasanha Renata Direto Ao Forno 200g</t>
+          <t>Cup Noodles Nissin 69g Costela Molh Chur</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3f53f48-161d-4cdc-a2f0-315cb34c6ff2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd0a52f5-25c9-4b0e-9de2-813d34ba8f3b.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7891079013083</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2962,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 69g Legumes Com Azeit</t>
+          <t>Cup Noodles Nissin 69g Yakissoba Trad</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2577,7 +2972,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0ae637c-9fa4-4f42-852b-03addc9f036e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6e51045f-db88-4de6-8cfc-a46f9d684889.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7891079013106</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Turma Da Monica Nissin 85g Galinha Caipira Com Tomate</t>
+          <t>Cup Noodles Nissin 69g Bolonhesa</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/956231bb-5f51-4f45-85bc-4107c97787b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c20c2420-e6f5-42f8-9cef-c82be36f1855.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7891079013113</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Macarrão Integral Renata 500g Espaguet</t>
+          <t>Cup Noodles Nissin 69g Cheddar</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4c2bccf-eeb2-4b46-b0cb-26a51a678280.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c00ee7a3-ca55-4a2b-b1e1-539bdcfbcaa0.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7891079013113</t>
         </is>
       </c>
     </row>
@@ -2648,7 +3058,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 69g Frutos Do Mar</t>
+          <t>Cup Noodles Nissin 69g Frango Teriyaki</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2658,7 +3068,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba8328ac-fa4a-449d-9848-f4e3d045b62b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/024e1066-001a-40db-8e76-34334ec530ed.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7891079013113</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Macarrão Barilla 500g Farfalle N65</t>
+          <t>Cup Noodles Nissin 69g Frutos Do Mar</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d226bc95-6fee-4b4f-b151-87424359b922.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba8328ac-fa4a-449d-9848-f4e3d045b62b.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7891079013076</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Macarrao Barilla 500g Linguine Nº13</t>
+          <t>Cup Noodles Nissin 69g Galinha Picante</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cba1222a-f9eb-4c33-8198-a1f9fd4ee93c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f3ebb74-dc07-46f8-be43-e6a31f2d267d.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7891079013113</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Macarrão Barilla 500g Spaguetti N5</t>
+          <t>Cup Noodles Nissin 69g Legumes Com Azeit</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2756cfa-3c72-4f7e-8672-1fc559fcb723.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0ae637c-9fa4-4f42-852b-03addc9f036e.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7891079013090</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Macarrão Renata 500g Padre Nosso</t>
+          <t>Queijo Parmetto Ralado Matilat 40g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98ec972b-9cb8-41b0-8c96-f8677fac8114.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4a7dee4c-0b26-4426-84f8-5e39a36a8c46.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7896238100017</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Queijo Ralado Vale Da Canastra 40gr</t>
+          <t>Macarrão 8 Grão Sabor Integral 500gr Penne Integral</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/189f3748-836b-426c-95bc-04011a5cdd85.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b9fa64f-3f98-4628-aaf8-e6c05e71cb1c.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7898962972038</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lasanha C/ovos Renata Tradicional 500g</t>
+          <t>Macarrão 8 Grãos Sabor Integral 500g Fusilli Integral</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd77dce4-fc29-4b9b-ba83-b301dc2dbcad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d5c9abc-41f0-448d-9d87-33a764333fbe.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7898962972014</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 69g Galinha Picante</t>
+          <t>Macarrão Talharim Integral Espinafre Sabor Integral 500gr</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f3ebb74-dc07-46f8-be43-e6a31f2d267d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85ce1f63-9fb9-448c-bf0c-ff76e449d155.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7896216100176</t>
         </is>
       </c>
     </row>
@@ -2864,7 +3314,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Macarrão Renata Spaguetti-8 Superiori</t>
+          <t>Macarrão Ninho Integral C/ Quinoa Mosmann 300gr</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2874,7 +3324,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9bffd33-052d-489f-a3f8-c0eff84ebb25.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc36e78e-06bd-4cd5-8564-0b5d5c66e99b.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7896324203738</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Macarrão Renata Furadinho 5 C/ovos 500g</t>
+          <t>Macarrão C/ Ovos Barilla 500g Linguine</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a1c4dc2-f77b-4d51-9a08-d22f6afcaa18.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/308409c3-07c3-47f8-9f6f-5b4978d114a6.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7898951850088</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Macarrão Renata Pena Tricolori 500g</t>
+          <t>Macarrão Instantâneo Chico Bento 85g Canja De Galinha</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4391c22-3991-4608-91b5-7791ffcef45e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4aaf1f8e-cb70-4d21-8204-9b1a0613c470.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7891079013793</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Macarrão Renata Ninho N2 500gr</t>
+          <t>Macarrão De Arroz Urbano S/ Gluten 500g Espag</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c418a3c5-dd8d-4a48-ad2a-21b6de8e4858.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/854553d8-91f9-461a-8a16-53dcb5dc070d.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7896038313198</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 69g Yakissoba Trad</t>
+          <t>Macarrão De Arroz Urbano S/ Glúten 500g Padre Nosso</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6e51045f-db88-4de6-8cfc-a46f9d684889.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1565fec8-f138-447b-8a27-ffa160b8a81d.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7896038360192</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Macarrão Renata Gravata C/ Ovos 500gr</t>
+          <t>Macarrão De Arroz Urbano Integral S/ Glúten Espaguete 500g</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8728aa84-cc28-4f6c-b820-2922cfb0ba8e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbf031ba-551d-409a-8111-1524f160e186.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7896038360192</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Macarrão Renata Ninho 3 C/ Ovos 500 Gr</t>
+          <t>Macarrão De Arroz Urbano Integral S/ Glúten Pena 500g</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51ff8901-6a03-46bf-a9d0-c0de06ab9339.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce3470f3-fd96-4255-a19e-26b708eb44d0.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7896038305193</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Macarrão De Arroz Urbano S/ Glúten 500g Padre Nosso</t>
+          <t>Macarrão Arroz/feijão Urbano S/glúten 500g Parafuso</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1565fec8-f138-447b-8a27-ffa160b8a81d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0236aed-6454-4d17-a5fb-eb925646c66d.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7896038330195</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Macarrão Divella 500 Fusilli 40</t>
+          <t>Queijo Ralado Presidente 100g</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48d52df4-24e2-462f-88d2-fa3043486c29.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f628d9b-ecfa-47ba-bfaa-a2ccc608c5cd.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7891097103858</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 69g Cheddar</t>
+          <t>Macarrão De Arroz Urbano Integral S/ Glúten Parafuso 500g</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c00ee7a3-ca55-4a2b-b1e1-539bdcfbcaa0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19801cd2-416c-43d8-9ea7-0e114f085375.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7896038360192</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Macarrão Barilla 500g Spaghettini 3</t>
+          <t>Macarrão De Arroz Urbano S/gluten 500g Parafuso</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a98a0d0b-32f5-4d9a-9a89-e7bc4eef459f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e532323-1aad-4c19-85f8-657daaa10be6.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7896038310197</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Macarrão Renata 500g Carocolino</t>
+          <t>Macarrão De Arroz Urbano S/gluten 500g Pena</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ac4b7ea-3ab3-4674-aa1f-410d58ac2f6c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4c4d131-683e-440d-8399-4555041a3e96.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7896038305193</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Macarrão Barilla 500g Fusilli N98</t>
+          <t>Macarrão Renata 500g Talharim 2</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b13287e-b712-4f8b-b43c-f2d210d70831.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45b737c7-6d5d-4d2c-8b86-9c052e325c18.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7896022204150</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Queijo Ralado Reliquia Canastra 100g</t>
+          <t>Queijo Relíquia Da Canastra Parmesão Ralado Extra Fino 50g</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6435c1f6-cff2-4e12-9160-4331f0c6ba82.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf53421a-025e-44d5-8d12-5759a4a680ef.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7898924049488</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 69g Bolonhesa</t>
+          <t>Queijo Ralado Vale Da Canastra 40gr</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c20c2420-e6f5-42f8-9cef-c82be36f1855.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/189f3748-836b-426c-95bc-04011a5cdd85.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7898924049501</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Macarrão De Arroz Urbano Integral S/ Glúten Pena 500g</t>
+          <t>Queijo Ralado Matilat 40g</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce3470f3-fd96-4255-a19e-26b708eb44d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b07d382e-09f8-4fde-9e35-3bd37462aa57.jpg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7896238100017</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Macarrão Renata 500g Nhoque</t>
+          <t>Macarrão De Arroz Sem Gluten Urbano Kids 500g Personagens</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7543120-11c0-4e05-b739-48654530266f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f6f2036-3a58-43cf-b39a-36aae442d9e1.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7896038360192</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Macarrão Barilla 500g Spaghettoni N7</t>
+          <t>Macarrão Instantâneo Turma Da Monica Nissin 85g Galinha Caipira Com Tomate</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f9a4bcf-1220-4844-946d-fa97027ca671.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/956231bb-5f51-4f45-85bc-4107c97787b2.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7891079001011</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Macarrão Renata Superiore Penne 500g</t>
+          <t>Macarrão Instantâneo Adria 75g Assado De Carne</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 2,29</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9465ed5c-0596-4371-ac74-5d5dad367c56.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7dd0ae33-2165-477c-88d0-f302ca215d6e.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7896085087271</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Macarrão Divella 500 Fettuccine 12</t>
+          <t>Macarrão Instantâneo Adria 75g Assado De Galinha</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 2,29</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdbfd2b8-751d-4854-8542-4f3d2291612d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7194e809-3103-4900-bfd1-118b7515ab2e.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7896085087301</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3954,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 69g Frango Teriyaki</t>
+          <t>Massa P/lasanha Barilla 200g Tradicional</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3414,7 +3964,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/024e1066-001a-40db-8e76-34334ec530ed.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03e91cdd-06d0-4c1c-b3c3-9c66d34faf92.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7898951850217</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Macarrão De Arroz Urbano Integral S/ Glúten Espaguete 500g</t>
+          <t>Cup Noodles Nissin 69g Parmegiana</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbf031ba-551d-409a-8111-1524f160e186.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbd2253c-610a-4ce7-a721-f6d26826d46e.jpg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7891079013113</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Macarrão Renata Fidelinho 10 C/ovos 500</t>
+          <t>Macarrão Instantâneo Nissin 85g Calabresa Picante</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fad41293-b54f-419e-9622-93b1bafc9313.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b3a0376-ac31-4a2c-87bb-9af39415555e.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7891079014288</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Macarrão Integral Renata 500g Fusilli</t>
+          <t>Macarrão De Arroz Sem Glúten Urbano Kids 500g Formato De Animais</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf0bf265-9f2b-4006-9b31-b6a3c7817aee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8fd60c3a-9659-41b5-86f5-82f0f4319ccf.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7896038300006</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Macarrão Yakissoba Nissin Ufo 97g Carne/molho Japones</t>
+          <t>Macarrão De Arroz Pena Urbano Kids 500g Espinafre</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 8,69</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2219b9c-f5ba-484c-afa6-d23f088d415c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/531b3a6b-7497-4e6e-bd55-77f31b2fcb05.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7896038300006</t>
         </is>
       </c>
     </row>
@@ -3539,1529 +4114,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Queijo Relíquia Da Canastra Parmesão Ralado Extra Fino 50g</t>
+          <t>Macarrão Instantâneo Nissin 85g Lombo Suino Com Limão</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf53421a-025e-44d5-8d12-5759a4a680ef.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Macarrão De Arroz Urbano Integral S/ Glúten Parafuso 500g</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19801cd2-416c-43d8-9ea7-0e114f085375.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Macarrão De Arroz Sem Gluten Urbano Kids 500g Rigatoni</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adfda503-f5e1-40a3-9910-d33c513f47a8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Macarrão Integrale Renata Penne 500g</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7cccaa7-bca4-4e10-b472-8c3ce1cbb6b7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Macarrão Renata 500g Concha</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f51000a4-953f-43a8-aa6c-952c4cb9bea1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Macarrao Penne Grano Duro Renata 500g Tricolori</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7196e8f2-554d-4373-b43e-2de4c8664794.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Macarrão Paganini Rigatoni 500g</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/931d30b4-ad4d-430d-a672-e5b27a309af0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Macarrão Renata Fusilli Superiori 500g</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f40e3cde-e956-4a59-a4c7-9c2c21efeac1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Macarrão Instantâneo Nissin Yakissoba 500g</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a828682b-512b-436f-8555-db6d630108c3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Macarrao Barilla 500g Angel Hair</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcd35f7c-2861-4343-aadc-97d18a3c5361.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Macarrão De Arroz Sem Gluten Urbano Kids 500g Personagens</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f6f2036-3a58-43cf-b39a-36aae442d9e1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Macarrão Instantâneo Chico Bento 85g Milho Na Manteiga</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08ab18ce-fc66-4555-aec1-7e39317331d4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Macarrao Renata Fusilli Grano Duro 500g Tricolor</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d67f9db2-e7ff-4aa6-8bd0-84090af63db8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Macarrão Divella 500ml Rigatone 017</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b5b0b00-95eb-42b0-a7d3-18ebe384ae18.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Massa P/lasanha Barilla 200g Tradicional</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03e91cdd-06d0-4c1c-b3c3-9c66d34faf92.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Macarrão 8 Grãos Sabor Integral 500g Fusilli Integral</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d5c9abc-41f0-448d-9d87-33a764333fbe.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Macarrão Renata Aletria 500gr</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>R$ 6,49</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/408a2b67-f100-4fd6-8d7d-2e36d72e3daf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Queijo Ralado Vegetal Sora 50gr Parmes</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>R$ 7,49</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9ccc143-cea1-4618-a62e-8ded63312289.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Queijo Ralado Vale Da Canastra 100g</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e205153-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Macarrão Instantâneo Nissin 85g Calabresa Picante</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b3a0376-ac31-4a2c-87bb-9af39415555e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Macarrão Nissin 500g Espaguete 3 Minutos</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9a1fcd2-5b01-4722-a3d8-896b51943ac9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Macarrão De Lentilha Urbano Vermelha Pena 500g</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c151e29f-2caf-4c3c-b81b-eaea8951cfbd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Macarrão 8 Grão Sabor Integral 500gr Penne Integral</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b9fa64f-3f98-4628-aaf8-e6c05e71cb1c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Macarrão Arroz/feijão Urbano S/glúten 500g Parafuso</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0236aed-6454-4d17-a5fb-eb925646c66d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Macarrao Instantaneo Nissin 85g Galinha Caipira Picante</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5b32af6-aaef-4971-85aa-1b6762fcb7a8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Macarrão Integrale Renata 500g Farfalle</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df01943a-6db8-4e5f-bfc9-830e66aecd96.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Macarrão Divella 500g Conghiglioni 087b</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b8699031-c6f5-4cd7-b911-a7ddbde100c9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Macarrão Paganini 500g Fettuccine Nidi</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92780f99-675d-43bb-81c1-8a9878ae2bb8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Macarrão Talharim Integral Espinafre Sabor Integral 500gr</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85ce1f63-9fb9-448c-bf0c-ff76e449d155.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Massa Paganini 500gr Fusilli</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faa7fd9c-6aee-47a4-b4fc-b7466e42722f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Macarrão C/tapioca S/glúten Mosmann 300g</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0638cdb0-ce15-4626-b976-190994a8f0be.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Macarrão Integral Divella 500g Spaghetti N8</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8cfd09d-8d5f-47e2-ad08-1ea7fd472fae.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Massa Divella N75 500g Anellini P/sopa</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5b14a88-858a-4f76-828f-8efbfb9b5e20.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Macarrão Renata Farfalle Superiori 500g</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fabbd5a9-abb2-4e80-a8f6-88e5a3ef1293.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Macarrão Renata Trad.superiore Spaghettini 10</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/383f05a2-db53-40b8-8476-60e6988d0565.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Macarrão Yakissoba Mezzani 500g</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/642824b6-69d9-4b2c-9050-d9a3aaefb4e3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Cup Noodles Nissin 69g Parmegiana</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbd2253c-610a-4ce7-a721-f6d26826d46e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Macarrão Instantâneo Nissin 85g Lombo Suino Com Limão</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3991b42a-1388-4a68-8cb3-3c0d97e2c605.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Macarrão Ninho Integral C/ Quinoa Mosmann 300gr</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc36e78e-06bd-4cd5-8564-0b5d5c66e99b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Macarrao Fettuccine Nº6 Barilla 500g</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f47bfa1-5401-48ee-8553-0c358e249b90.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Macarrão De Arroz Pena Urbano Kids 500g Espinafre</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/531b3a6b-7497-4e6e-bd55-77f31b2fcb05.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Queijo Ralado Vegetal Sora 50g Q Mussar</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>R$ 7,49</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/197d4607-990e-4446-914e-88a5ad88520f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Macarrão Divella 500g Lasagne Semola</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3335b97-83b2-4d6b-b566-81d434243e2b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Macarrão Divella 500g Paccheri Nap 080</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/201ac1b3-d95f-4f8f-bdef-8758ca8e0a11.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Lasanha Organica Native 200g</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>R$ 10,49</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ad84b22-528e-4806-8564-d99c7ce32ca5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Macarrão Divella 500g Orecchite Bares 086</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/999701d4-3e4d-4284-88e2-cdfcbd3a056d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Macarrão Divella Fusili Int 040 500g</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d164a5ec-1ec3-4dea-abb9-daaee36f4f60.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Massa Divella N65 500g Paternostini</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e632295d-35d6-44ba-9d9d-ecd1f6843e25.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Macarrão Divella 500g Spaghetti Senza Glutine</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ad0ba36-2da2-4940-bc1c-a8a2a1c93454.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Macarrão De Arroz Sem Glúten Urbano Kids 500g Formato De Animais</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8fd60c3a-9659-41b5-86f5-82f0f4319ccf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Macarrão Rustichella 500g Fettuccine</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f6d0b2b-79b8-4c2d-a7e3-4c2a85e2d86d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Macarrão Mandioca S/gluten Kodilar 400g</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84b3bb60-86df-4eff-8b2f-8f02e70f0848.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Massa Caseira Integral S/glúten Mosmann 300gr</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76f4ef0d-b048-4ac5-845c-15d35c761c0a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Massa Integral Ninho Batata Doce Mosmann 300g</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ce6eedb-ef52-43d2-8aab-ab98c384c559.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Macarrão Penne Integral C/ Chia Mosmann 400gr</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c183a64f-7087-4cb8-9aee-27594f16e6ae.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Macarrão Instantãneo Chico Bento 75g Carne Com Batata</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d5490d6-a5b8-4ad6-bfa2-517a6cce8697.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Macarrao</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Lasagna Verde Paganini 200g</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ebf6955-ae73-42b5-a01e-aca3e33b8577.jpg</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7891079014301</t>
         </is>
       </c>
     </row>
